--- a/Keyword/src/main/java/utility/TestData.xlsx
+++ b/Keyword/src/main/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/Keyword/src/main/java/utility/TestData.xlsx
+++ b/Keyword/src/main/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/Keyword/src/main/java/utility/TestData.xlsx
+++ b/Keyword/src/main/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/Keyword/src/main/java/utility/TestData.xlsx
+++ b/Keyword/src/main/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/Keyword/src/main/java/utility/TestData.xlsx
+++ b/Keyword/src/main/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/Keyword/src/main/java/utility/TestData.xlsx
+++ b/Keyword/src/main/java/utility/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
   <si>
     <t>TestCaseID</t>
   </si>
